--- a/data/bom/bom_solar_exposure.xlsx
+++ b/data/bom/bom_solar_exposure.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Emanuel\DataScience\SunnyExplorer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Emanuel\DataScience\SunnyExplorer\data\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40774543-A7F1-4D0B-A4E5-266247713534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3157623-DA69-42EB-9F59-D7268D6CAEBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="3795" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Irradiance" sheetId="1" r:id="rId1"/>
+    <sheet name="Units" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -470,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,11 +522,8 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2015</v>
       </c>
@@ -569,7 +567,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2016</v>
       </c>
@@ -613,7 +611,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2017</v>
       </c>
@@ -657,7 +655,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
@@ -701,7 +699,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2019</v>
       </c>
@@ -745,7 +743,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2020</v>
       </c>
@@ -801,4 +799,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1CF318-CFF6-4999-BBF4-91CA5FD39270}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>